--- a/natmiOut/OldD4/LR-pairs_lrc2p/Arf1-Pld2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Arf1-Pld2.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>44.1771071544413</v>
+        <v>50.41084233333333</v>
       </c>
       <c r="H2">
-        <v>44.1771071544413</v>
+        <v>151.232527</v>
       </c>
       <c r="I2">
-        <v>0.1436478315078347</v>
+        <v>0.1533822412306554</v>
       </c>
       <c r="J2">
-        <v>0.1436478315078347</v>
+        <v>0.1625332948695183</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.67959648229534</v>
+        <v>7.448674</v>
       </c>
       <c r="N2">
-        <v>6.67959648229534</v>
+        <v>22.346022</v>
       </c>
       <c r="O2">
-        <v>0.2185912033364554</v>
+        <v>0.2193224153225756</v>
       </c>
       <c r="P2">
-        <v>0.2185912033364554</v>
+        <v>0.2253632458423367</v>
       </c>
       <c r="Q2">
-        <v>295.0852495467904</v>
+        <v>375.4939306063994</v>
       </c>
       <c r="R2">
-        <v>295.0852495467904</v>
+        <v>3379.445375457594</v>
       </c>
       <c r="S2">
-        <v>0.03140015234596997</v>
+        <v>0.03364016361429727</v>
       </c>
       <c r="T2">
-        <v>0.03140015234596997</v>
+        <v>0.03662903088924426</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>44.1771071544413</v>
+        <v>50.41084233333333</v>
       </c>
       <c r="H3">
-        <v>44.1771071544413</v>
+        <v>151.232527</v>
       </c>
       <c r="I3">
-        <v>0.1436478315078347</v>
+        <v>0.1533822412306554</v>
       </c>
       <c r="J3">
-        <v>0.1436478315078347</v>
+        <v>0.1625332948695183</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.13378202714983</v>
+        <v>5.63878</v>
       </c>
       <c r="N3">
-        <v>5.13378202714983</v>
+        <v>16.91634</v>
       </c>
       <c r="O3">
-        <v>0.1680040993428576</v>
+        <v>0.1660310075420984</v>
       </c>
       <c r="P3">
-        <v>0.1680040993428576</v>
+        <v>0.1706040247419676</v>
       </c>
       <c r="Q3">
-        <v>226.7956387209429</v>
+        <v>284.2556495323533</v>
       </c>
       <c r="R3">
-        <v>226.7956387209429</v>
+        <v>2558.30084579118</v>
       </c>
       <c r="S3">
-        <v>0.02413342455502833</v>
+        <v>0.0254662080505909</v>
       </c>
       <c r="T3">
-        <v>0.02413342455502833</v>
+        <v>0.02772883425931283</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>44.1771071544413</v>
+        <v>50.41084233333333</v>
       </c>
       <c r="H4">
-        <v>44.1771071544413</v>
+        <v>151.232527</v>
       </c>
       <c r="I4">
-        <v>0.1436478315078347</v>
+        <v>0.1533822412306554</v>
       </c>
       <c r="J4">
-        <v>0.1436478315078347</v>
+        <v>0.1625332948695183</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.756268567617131</v>
+        <v>9.765966666666666</v>
       </c>
       <c r="N4">
-        <v>8.756268567617131</v>
+        <v>29.2979</v>
       </c>
       <c r="O4">
-        <v>0.2865507352137053</v>
+        <v>0.2875539186294225</v>
       </c>
       <c r="P4">
-        <v>0.2865507352137053</v>
+        <v>0.2954740597840723</v>
       </c>
       <c r="Q4">
-        <v>386.8266147846882</v>
+        <v>492.3106058659222</v>
       </c>
       <c r="R4">
-        <v>386.8266147846882</v>
+        <v>4430.7954527933</v>
       </c>
       <c r="S4">
-        <v>0.04116239173042448</v>
+        <v>0.04410566451403833</v>
       </c>
       <c r="T4">
-        <v>0.04116239173042448</v>
+        <v>0.04802437248517831</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>44.1771071544413</v>
+        <v>50.41084233333333</v>
       </c>
       <c r="H5">
-        <v>44.1771071544413</v>
+        <v>151.232527</v>
       </c>
       <c r="I5">
-        <v>0.1436478315078347</v>
+        <v>0.1533822412306554</v>
       </c>
       <c r="J5">
-        <v>0.1436478315078347</v>
+        <v>0.1625332948695183</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.29756773191692</v>
+        <v>8.377732666666667</v>
       </c>
       <c r="N5">
-        <v>7.29756773191692</v>
+        <v>25.133198</v>
       </c>
       <c r="O5">
-        <v>0.2388144427851496</v>
+        <v>0.2466780749674607</v>
       </c>
       <c r="P5">
-        <v>0.2388144427851496</v>
+        <v>0.2534723665660995</v>
       </c>
       <c r="Q5">
-        <v>322.385431659687</v>
+        <v>422.3285605701496</v>
       </c>
       <c r="R5">
-        <v>322.385431659687</v>
+        <v>3800.957045131346</v>
       </c>
       <c r="S5">
-        <v>0.03430517683883859</v>
+        <v>0.03783603600097274</v>
       </c>
       <c r="T5">
-        <v>0.03430517683883859</v>
+        <v>0.0411976988963625</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>44.1771071544413</v>
+        <v>50.41084233333333</v>
       </c>
       <c r="H6">
-        <v>44.1771071544413</v>
+        <v>151.232527</v>
       </c>
       <c r="I6">
-        <v>0.1436478315078347</v>
+        <v>0.1533822412306554</v>
       </c>
       <c r="J6">
-        <v>0.1436478315078347</v>
+        <v>0.1625332948695183</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.69026591458911</v>
+        <v>2.731057</v>
       </c>
       <c r="N6">
-        <v>2.69026591458911</v>
+        <v>5.462114</v>
       </c>
       <c r="O6">
-        <v>0.08803951932183224</v>
+        <v>0.08041458353844284</v>
       </c>
       <c r="P6">
-        <v>0.08803951932183224</v>
+        <v>0.05508630306552409</v>
       </c>
       <c r="Q6">
-        <v>118.8481655827441</v>
+        <v>137.6748838303463</v>
       </c>
       <c r="R6">
-        <v>118.8481655827441</v>
+        <v>826.049302982078</v>
       </c>
       <c r="S6">
-        <v>0.01264668603757331</v>
+        <v>0.01233416905075613</v>
       </c>
       <c r="T6">
-        <v>0.01264668603757331</v>
+        <v>0.008953358339420479</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>68.15239469437211</v>
+        <v>72.399292</v>
       </c>
       <c r="H7">
-        <v>68.15239469437211</v>
+        <v>217.197876</v>
       </c>
       <c r="I7">
-        <v>0.2216067176079995</v>
+        <v>0.2202852631789851</v>
       </c>
       <c r="J7">
-        <v>0.2216067176079995</v>
+        <v>0.2334278684964451</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.67959648229534</v>
+        <v>7.448674</v>
       </c>
       <c r="N7">
-        <v>6.67959648229534</v>
+        <v>22.346022</v>
       </c>
       <c r="O7">
-        <v>0.2185912033364554</v>
+        <v>0.2193224153225756</v>
       </c>
       <c r="P7">
-        <v>0.2185912033364554</v>
+        <v>0.2253632458423367</v>
       </c>
       <c r="Q7">
-        <v>455.2304958605315</v>
+        <v>539.2787239388081</v>
       </c>
       <c r="R7">
-        <v>455.2304958605315</v>
+        <v>4853.508515449273</v>
       </c>
       <c r="S7">
-        <v>0.04844127906937468</v>
+        <v>0.04831349598038423</v>
       </c>
       <c r="T7">
-        <v>0.04844127906937468</v>
+        <v>0.05260606211441698</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>68.15239469437211</v>
+        <v>72.399292</v>
       </c>
       <c r="H8">
-        <v>68.15239469437211</v>
+        <v>217.197876</v>
       </c>
       <c r="I8">
-        <v>0.2216067176079995</v>
+        <v>0.2202852631789851</v>
       </c>
       <c r="J8">
-        <v>0.2216067176079995</v>
+        <v>0.2334278684964451</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.13378202714983</v>
+        <v>5.63878</v>
       </c>
       <c r="N8">
-        <v>5.13378202714983</v>
+        <v>16.91634</v>
       </c>
       <c r="O8">
-        <v>0.1680040993428576</v>
+        <v>0.1660310075420984</v>
       </c>
       <c r="P8">
-        <v>0.1680040993428576</v>
+        <v>0.1706040247419676</v>
       </c>
       <c r="Q8">
-        <v>349.879538989189</v>
+        <v>408.24367974376</v>
       </c>
       <c r="R8">
-        <v>349.879538989189</v>
+        <v>3674.19311769384</v>
       </c>
       <c r="S8">
-        <v>0.03723083700005895</v>
+        <v>0.03657418419228321</v>
       </c>
       <c r="T8">
-        <v>0.03723083700005895</v>
+        <v>0.03982373385243228</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>68.15239469437211</v>
+        <v>72.399292</v>
       </c>
       <c r="H9">
-        <v>68.15239469437211</v>
+        <v>217.197876</v>
       </c>
       <c r="I9">
-        <v>0.2216067176079995</v>
+        <v>0.2202852631789851</v>
       </c>
       <c r="J9">
-        <v>0.2216067176079995</v>
+        <v>0.2334278684964451</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.756268567617131</v>
+        <v>9.765966666666666</v>
       </c>
       <c r="N9">
-        <v>8.756268567617131</v>
+        <v>29.2979</v>
       </c>
       <c r="O9">
-        <v>0.2865507352137053</v>
+        <v>0.2875539186294225</v>
       </c>
       <c r="P9">
-        <v>0.2865507352137053</v>
+        <v>0.2954740597840723</v>
       </c>
       <c r="Q9">
-        <v>596.7606714701669</v>
+        <v>707.0490723622667</v>
       </c>
       <c r="R9">
-        <v>596.7606714701669</v>
+        <v>6363.4416512604</v>
       </c>
       <c r="S9">
-        <v>0.06350156785886824</v>
+        <v>0.06334389064343081</v>
       </c>
       <c r="T9">
-        <v>0.06350156785886824</v>
+        <v>0.06897187997138718</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>68.15239469437211</v>
+        <v>72.399292</v>
       </c>
       <c r="H10">
-        <v>68.15239469437211</v>
+        <v>217.197876</v>
       </c>
       <c r="I10">
-        <v>0.2216067176079995</v>
+        <v>0.2202852631789851</v>
       </c>
       <c r="J10">
-        <v>0.2216067176079995</v>
+        <v>0.2334278684964451</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.29756773191692</v>
+        <v>8.377732666666667</v>
       </c>
       <c r="N10">
-        <v>7.29756773191692</v>
+        <v>25.133198</v>
       </c>
       <c r="O10">
-        <v>0.2388144427851496</v>
+        <v>0.2466780749674607</v>
       </c>
       <c r="P10">
-        <v>0.2388144427851496</v>
+        <v>0.2534723665660995</v>
       </c>
       <c r="Q10">
-        <v>497.3467163745158</v>
+        <v>606.5419136319387</v>
       </c>
       <c r="R10">
-        <v>497.3467163745158</v>
+        <v>5458.877222687448</v>
       </c>
       <c r="S10">
-        <v>0.0529228847830004</v>
+        <v>0.05433954466469249</v>
       </c>
       <c r="T10">
-        <v>0.0529228847830004</v>
+        <v>0.0591675142502742</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>68.15239469437211</v>
+        <v>72.399292</v>
       </c>
       <c r="H11">
-        <v>68.15239469437211</v>
+        <v>217.197876</v>
       </c>
       <c r="I11">
-        <v>0.2216067176079995</v>
+        <v>0.2202852631789851</v>
       </c>
       <c r="J11">
-        <v>0.2216067176079995</v>
+        <v>0.2334278684964451</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.69026591458911</v>
+        <v>2.731057</v>
       </c>
       <c r="N11">
-        <v>2.69026591458911</v>
+        <v>5.462114</v>
       </c>
       <c r="O11">
-        <v>0.08803951932183224</v>
+        <v>0.08041458353844284</v>
       </c>
       <c r="P11">
-        <v>0.08803951932183224</v>
+        <v>0.05508630306552409</v>
       </c>
       <c r="Q11">
-        <v>183.348064443893</v>
+        <v>197.726593211644</v>
       </c>
       <c r="R11">
-        <v>183.348064443893</v>
+        <v>1186.359559269864</v>
       </c>
       <c r="S11">
-        <v>0.0195101488966973</v>
+        <v>0.01771414769819436</v>
       </c>
       <c r="T11">
-        <v>0.0195101488966973</v>
+        <v>0.01285867830793448</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>60.3177413851197</v>
+        <v>63.396933</v>
       </c>
       <c r="H12">
-        <v>60.3177413851197</v>
+        <v>190.190799</v>
       </c>
       <c r="I12">
-        <v>0.1961312840411223</v>
+        <v>0.192894290605017</v>
       </c>
       <c r="J12">
-        <v>0.1961312840411223</v>
+        <v>0.2044027024380561</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.67959648229534</v>
+        <v>7.448674</v>
       </c>
       <c r="N12">
-        <v>6.67959648229534</v>
+        <v>22.346022</v>
       </c>
       <c r="O12">
-        <v>0.2185912033364554</v>
+        <v>0.2193224153225756</v>
       </c>
       <c r="P12">
-        <v>0.2185912033364554</v>
+        <v>0.2253632458423367</v>
       </c>
       <c r="Q12">
-        <v>402.8981731760456</v>
+        <v>472.223086516842</v>
       </c>
       <c r="R12">
-        <v>402.8981731760456</v>
+        <v>4250.007778651579</v>
       </c>
       <c r="S12">
-        <v>0.04287257339047304</v>
+        <v>0.04230604171742713</v>
       </c>
       <c r="T12">
-        <v>0.04287257339047304</v>
+        <v>0.04606485648038564</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>60.3177413851197</v>
+        <v>63.396933</v>
       </c>
       <c r="H13">
-        <v>60.3177413851197</v>
+        <v>190.190799</v>
       </c>
       <c r="I13">
-        <v>0.1961312840411223</v>
+        <v>0.192894290605017</v>
       </c>
       <c r="J13">
-        <v>0.1961312840411223</v>
+        <v>0.2044027024380561</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.13378202714983</v>
+        <v>5.63878</v>
       </c>
       <c r="N13">
-        <v>5.13378202714983</v>
+        <v>16.91634</v>
       </c>
       <c r="O13">
-        <v>0.1680040993428576</v>
+        <v>0.1660310075420984</v>
       </c>
       <c r="P13">
-        <v>0.1680040993428576</v>
+        <v>0.1706040247419676</v>
       </c>
       <c r="Q13">
-        <v>309.658136641199</v>
+        <v>357.48135786174</v>
       </c>
       <c r="R13">
-        <v>309.658136641199</v>
+        <v>3217.33222075566</v>
       </c>
       <c r="S13">
-        <v>0.03295085972828693</v>
+        <v>0.03202643341826931</v>
       </c>
       <c r="T13">
-        <v>0.03295085972828693</v>
+        <v>0.03487192370406717</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>60.3177413851197</v>
+        <v>63.396933</v>
       </c>
       <c r="H14">
-        <v>60.3177413851197</v>
+        <v>190.190799</v>
       </c>
       <c r="I14">
-        <v>0.1961312840411223</v>
+        <v>0.192894290605017</v>
       </c>
       <c r="J14">
-        <v>0.1961312840411223</v>
+        <v>0.2044027024380561</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.756268567617131</v>
+        <v>9.765966666666666</v>
       </c>
       <c r="N14">
-        <v>8.756268567617131</v>
+        <v>29.2979</v>
       </c>
       <c r="O14">
-        <v>0.2865507352137053</v>
+        <v>0.2875539186294225</v>
       </c>
       <c r="P14">
-        <v>0.2865507352137053</v>
+        <v>0.2954740597840723</v>
       </c>
       <c r="Q14">
-        <v>528.1583429601826</v>
+        <v>619.1323344468999</v>
       </c>
       <c r="R14">
-        <v>528.1583429601826</v>
+        <v>5572.191010022099</v>
       </c>
       <c r="S14">
-        <v>0.05620156364039165</v>
+        <v>0.05546750914471525</v>
       </c>
       <c r="T14">
-        <v>0.05620156364039165</v>
+        <v>0.06039569632020813</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>60.3177413851197</v>
+        <v>63.396933</v>
       </c>
       <c r="H15">
-        <v>60.3177413851197</v>
+        <v>190.190799</v>
       </c>
       <c r="I15">
-        <v>0.1961312840411223</v>
+        <v>0.192894290605017</v>
       </c>
       <c r="J15">
-        <v>0.1961312840411223</v>
+        <v>0.2044027024380561</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.29756773191692</v>
+        <v>8.377732666666667</v>
       </c>
       <c r="N15">
-        <v>7.29756773191692</v>
+        <v>25.133198</v>
       </c>
       <c r="O15">
-        <v>0.2388144427851496</v>
+        <v>0.2466780749674607</v>
       </c>
       <c r="P15">
-        <v>0.2388144427851496</v>
+        <v>0.2534723665660995</v>
       </c>
       <c r="Q15">
-        <v>440.1728031941593</v>
+        <v>531.122556560578</v>
       </c>
       <c r="R15">
-        <v>440.1728031941593</v>
+        <v>4780.103009045202</v>
       </c>
       <c r="S15">
-        <v>0.04683898331101651</v>
+        <v>0.04758279227865953</v>
       </c>
       <c r="T15">
-        <v>0.04683898331101651</v>
+        <v>0.05181043671948032</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>60.3177413851197</v>
+        <v>63.396933</v>
       </c>
       <c r="H16">
-        <v>60.3177413851197</v>
+        <v>190.190799</v>
       </c>
       <c r="I16">
-        <v>0.1961312840411223</v>
+        <v>0.192894290605017</v>
       </c>
       <c r="J16">
-        <v>0.1961312840411223</v>
+        <v>0.2044027024380561</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.69026591458911</v>
+        <v>2.731057</v>
       </c>
       <c r="N16">
-        <v>2.69026591458911</v>
+        <v>5.462114</v>
       </c>
       <c r="O16">
-        <v>0.08803951932183224</v>
+        <v>0.08041458353844284</v>
       </c>
       <c r="P16">
-        <v>0.08803951932183224</v>
+        <v>0.05508630306552409</v>
       </c>
       <c r="Q16">
-        <v>162.2707636933885</v>
+        <v>173.140637648181</v>
       </c>
       <c r="R16">
-        <v>162.2707636933885</v>
+        <v>1038.843825889086</v>
       </c>
       <c r="S16">
-        <v>0.01726730397095415</v>
+        <v>0.01551151404594581</v>
       </c>
       <c r="T16">
-        <v>0.01726730397095415</v>
+        <v>0.0112597892139149</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>84.89308056258101</v>
+        <v>86.94092833333333</v>
       </c>
       <c r="H17">
-        <v>84.89308056258101</v>
+        <v>260.822785</v>
       </c>
       <c r="I17">
-        <v>0.276041319097751</v>
+        <v>0.2645302840659494</v>
       </c>
       <c r="J17">
-        <v>0.276041319097751</v>
+        <v>0.2803126249625782</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.67959648229534</v>
+        <v>7.448674</v>
       </c>
       <c r="N17">
-        <v>6.67959648229534</v>
+        <v>22.346022</v>
       </c>
       <c r="O17">
-        <v>0.2185912033364554</v>
+        <v>0.2193224153225756</v>
       </c>
       <c r="P17">
-        <v>0.2185912033364554</v>
+        <v>0.2253632458423367</v>
       </c>
       <c r="Q17">
-        <v>567.0515222970309</v>
+        <v>647.5946324123634</v>
       </c>
       <c r="R17">
-        <v>567.0515222970309</v>
+        <v>5828.35169171127</v>
       </c>
       <c r="S17">
-        <v>0.06034020411215986</v>
+        <v>0.05801742082731104</v>
       </c>
       <c r="T17">
-        <v>0.06034020411215986</v>
+        <v>0.06317216301215223</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>84.89308056258101</v>
+        <v>86.94092833333333</v>
       </c>
       <c r="H18">
-        <v>84.89308056258101</v>
+        <v>260.822785</v>
       </c>
       <c r="I18">
-        <v>0.276041319097751</v>
+        <v>0.2645302840659494</v>
       </c>
       <c r="J18">
-        <v>0.276041319097751</v>
+        <v>0.2803126249625782</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>5.13378202714983</v>
+        <v>5.63878</v>
       </c>
       <c r="N18">
-        <v>5.13378202714983</v>
+        <v>16.91634</v>
       </c>
       <c r="O18">
-        <v>0.1680040993428576</v>
+        <v>0.1660310075420984</v>
       </c>
       <c r="P18">
-        <v>0.1680040993428576</v>
+        <v>0.1706040247419676</v>
       </c>
       <c r="Q18">
-        <v>435.822571221561</v>
+        <v>490.2407678674333</v>
       </c>
       <c r="R18">
-        <v>435.822571221561</v>
+        <v>4412.1669108069</v>
       </c>
       <c r="S18">
-        <v>0.04637607319643203</v>
+        <v>0.04392022958886708</v>
       </c>
       <c r="T18">
-        <v>0.04637607319643203</v>
+        <v>0.04782246200460158</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>84.89308056258101</v>
+        <v>86.94092833333333</v>
       </c>
       <c r="H19">
-        <v>84.89308056258101</v>
+        <v>260.822785</v>
       </c>
       <c r="I19">
-        <v>0.276041319097751</v>
+        <v>0.2645302840659494</v>
       </c>
       <c r="J19">
-        <v>0.276041319097751</v>
+        <v>0.2803126249625782</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>8.756268567617131</v>
+        <v>9.765966666666666</v>
       </c>
       <c r="N19">
-        <v>8.756268567617131</v>
+        <v>29.2979</v>
       </c>
       <c r="O19">
-        <v>0.2865507352137053</v>
+        <v>0.2875539186294225</v>
       </c>
       <c r="P19">
-        <v>0.2865507352137053</v>
+        <v>0.2954740597840723</v>
       </c>
       <c r="Q19">
-        <v>743.3466129383169</v>
+        <v>849.0622080723888</v>
       </c>
       <c r="R19">
-        <v>743.3466129383169</v>
+        <v>7641.5598726515</v>
       </c>
       <c r="S19">
-        <v>0.07909984293682158</v>
+        <v>0.07606671977931803</v>
       </c>
       <c r="T19">
-        <v>0.07909984293682158</v>
+        <v>0.08282510930642306</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>84.89308056258101</v>
+        <v>86.94092833333333</v>
       </c>
       <c r="H20">
-        <v>84.89308056258101</v>
+        <v>260.822785</v>
       </c>
       <c r="I20">
-        <v>0.276041319097751</v>
+        <v>0.2645302840659494</v>
       </c>
       <c r="J20">
-        <v>0.276041319097751</v>
+        <v>0.2803126249625782</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>7.29756773191692</v>
+        <v>8.377732666666667</v>
       </c>
       <c r="N20">
-        <v>7.29756773191692</v>
+        <v>25.133198</v>
       </c>
       <c r="O20">
-        <v>0.2388144427851496</v>
+        <v>0.2466780749674607</v>
       </c>
       <c r="P20">
-        <v>0.2388144427851496</v>
+        <v>0.2534723665660995</v>
       </c>
       <c r="Q20">
-        <v>619.5130053765146</v>
+        <v>728.3678553684922</v>
       </c>
       <c r="R20">
-        <v>619.5130053765146</v>
+        <v>6555.310698316431</v>
       </c>
       <c r="S20">
-        <v>0.06592265380600708</v>
+        <v>0.06525382124398392</v>
       </c>
       <c r="T20">
-        <v>0.06592265380600708</v>
+        <v>0.07105150442762019</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>84.89308056258101</v>
+        <v>86.94092833333333</v>
       </c>
       <c r="H21">
-        <v>84.89308056258101</v>
+        <v>260.822785</v>
       </c>
       <c r="I21">
-        <v>0.276041319097751</v>
+        <v>0.2645302840659494</v>
       </c>
       <c r="J21">
-        <v>0.276041319097751</v>
+        <v>0.2803126249625782</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>2.69026591458911</v>
+        <v>2.731057</v>
       </c>
       <c r="N21">
-        <v>2.69026591458911</v>
+        <v>5.462114</v>
       </c>
       <c r="O21">
-        <v>0.08803951932183224</v>
+        <v>0.08041458353844284</v>
       </c>
       <c r="P21">
-        <v>0.08803951932183224</v>
+        <v>0.05508630306552409</v>
       </c>
       <c r="Q21">
-        <v>228.384961021979</v>
+        <v>237.4406309112483</v>
       </c>
       <c r="R21">
-        <v>228.384961021979</v>
+        <v>1424.64378546749</v>
       </c>
       <c r="S21">
-        <v>0.02430254504633051</v>
+        <v>0.0212720926264693</v>
       </c>
       <c r="T21">
-        <v>0.02430254504633051</v>
+        <v>0.01544138621178118</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>49.9972609391931</v>
+        <v>55.513536</v>
       </c>
       <c r="H22">
-        <v>49.9972609391931</v>
+        <v>111.027072</v>
       </c>
       <c r="I22">
-        <v>0.1625728477452924</v>
+        <v>0.1689079209193933</v>
       </c>
       <c r="J22">
-        <v>0.1625728477452924</v>
+        <v>0.1193235092334022</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>6.67959648229534</v>
+        <v>7.448674</v>
       </c>
       <c r="N22">
-        <v>6.67959648229534</v>
+        <v>22.346022</v>
       </c>
       <c r="O22">
-        <v>0.2185912033364554</v>
+        <v>0.2193224153225756</v>
       </c>
       <c r="P22">
-        <v>0.2185912033364554</v>
+        <v>0.2253632458423367</v>
       </c>
       <c r="Q22">
-        <v>333.9615282938364</v>
+        <v>413.502232251264</v>
       </c>
       <c r="R22">
-        <v>333.9615282938364</v>
+        <v>2481.013393507584</v>
       </c>
       <c r="S22">
-        <v>0.03553699441847781</v>
+        <v>0.03704529318315593</v>
       </c>
       <c r="T22">
-        <v>0.03553699441847781</v>
+        <v>0.02689113334613754</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>49.9972609391931</v>
+        <v>55.513536</v>
       </c>
       <c r="H23">
-        <v>49.9972609391931</v>
+        <v>111.027072</v>
       </c>
       <c r="I23">
-        <v>0.1625728477452924</v>
+        <v>0.1689079209193933</v>
       </c>
       <c r="J23">
-        <v>0.1625728477452924</v>
+        <v>0.1193235092334022</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>5.13378202714983</v>
+        <v>5.63878</v>
       </c>
       <c r="N23">
-        <v>5.13378202714983</v>
+        <v>16.91634</v>
       </c>
       <c r="O23">
-        <v>0.1680040993428576</v>
+        <v>0.1660310075420984</v>
       </c>
       <c r="P23">
-        <v>0.1680040993428576</v>
+        <v>0.1706040247419676</v>
       </c>
       <c r="Q23">
-        <v>256.6750396163497</v>
+        <v>313.02861652608</v>
       </c>
       <c r="R23">
-        <v>256.6750396163497</v>
+        <v>1878.17169915648</v>
       </c>
       <c r="S23">
-        <v>0.02731290486305137</v>
+        <v>0.02804395229208795</v>
       </c>
       <c r="T23">
-        <v>0.02731290486305137</v>
+        <v>0.02035707092155374</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>49.9972609391931</v>
+        <v>55.513536</v>
       </c>
       <c r="H24">
-        <v>49.9972609391931</v>
+        <v>111.027072</v>
       </c>
       <c r="I24">
-        <v>0.1625728477452924</v>
+        <v>0.1689079209193933</v>
       </c>
       <c r="J24">
-        <v>0.1625728477452924</v>
+        <v>0.1193235092334022</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>8.756268567617131</v>
+        <v>9.765966666666666</v>
       </c>
       <c r="N24">
-        <v>8.756268567617131</v>
+        <v>29.2979</v>
       </c>
       <c r="O24">
-        <v>0.2865507352137053</v>
+        <v>0.2875539186294225</v>
       </c>
       <c r="P24">
-        <v>0.2865507352137053</v>
+        <v>0.2954740597840723</v>
       </c>
       <c r="Q24">
-        <v>437.7894444288083</v>
+        <v>542.1433421247999</v>
       </c>
       <c r="R24">
-        <v>437.7894444288083</v>
+        <v>3252.8600527488</v>
       </c>
       <c r="S24">
-        <v>0.04658536904719931</v>
+        <v>0.04857013454792015</v>
       </c>
       <c r="T24">
-        <v>0.04658536904719931</v>
+        <v>0.03525700170087557</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>49.9972609391931</v>
+        <v>55.513536</v>
       </c>
       <c r="H25">
-        <v>49.9972609391931</v>
+        <v>111.027072</v>
       </c>
       <c r="I25">
-        <v>0.1625728477452924</v>
+        <v>0.1689079209193933</v>
       </c>
       <c r="J25">
-        <v>0.1625728477452924</v>
+        <v>0.1193235092334022</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>7.29756773191692</v>
+        <v>8.377732666666667</v>
       </c>
       <c r="N25">
-        <v>7.29756773191692</v>
+        <v>25.133198</v>
       </c>
       <c r="O25">
-        <v>0.2388144427851496</v>
+        <v>0.2466780749674607</v>
       </c>
       <c r="P25">
-        <v>0.2388144427851496</v>
+        <v>0.2534723665660995</v>
       </c>
       <c r="Q25">
-        <v>364.8583981140858</v>
+        <v>465.077563989376</v>
       </c>
       <c r="R25">
-        <v>364.8583981140858</v>
+        <v>2790.465383936256</v>
       </c>
       <c r="S25">
-        <v>0.03882474404628697</v>
+        <v>0.04166588077915202</v>
       </c>
       <c r="T25">
-        <v>0.03882474404628697</v>
+        <v>0.03024521227236227</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>49.9972609391931</v>
+        <v>55.513536</v>
       </c>
       <c r="H26">
-        <v>49.9972609391931</v>
+        <v>111.027072</v>
       </c>
       <c r="I26">
-        <v>0.1625728477452924</v>
+        <v>0.1689079209193933</v>
       </c>
       <c r="J26">
-        <v>0.1625728477452924</v>
+        <v>0.1193235092334022</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.69026591458911</v>
+        <v>2.731057</v>
       </c>
       <c r="N26">
-        <v>2.69026591458911</v>
+        <v>5.462114</v>
       </c>
       <c r="O26">
-        <v>0.08803951932183224</v>
+        <v>0.08041458353844284</v>
       </c>
       <c r="P26">
-        <v>0.08803951932183224</v>
+        <v>0.05508630306552409</v>
       </c>
       <c r="Q26">
-        <v>134.5059269275287</v>
+        <v>151.610631087552</v>
       </c>
       <c r="R26">
-        <v>134.5059269275287</v>
+        <v>606.442524350208</v>
       </c>
       <c r="S26">
-        <v>0.01431283537027696</v>
+        <v>0.01358266011707725</v>
       </c>
       <c r="T26">
-        <v>0.01431283537027696</v>
+        <v>0.006573090992473054</v>
       </c>
     </row>
   </sheetData>
